--- a/Dashboard_Projetos_v8.xlsx
+++ b/Dashboard_Projetos_v8.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projetos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tratativas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +32,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -41,6 +42,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00667eea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea580c"/>
       </patternFill>
     </fill>
     <fill>
@@ -61,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2101,7 +2110,877 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PROJETO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>DATA/HORA</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>USUÁRIO</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OCTOPUS MS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01/01/2026 09:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Kickoff realizado com sucesso. Participantes: equipe técnica, cliente e stakeholders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OCTOPUS MS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01/01/2026 14:15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Excelente início! Garantir documentação compartilhada com todos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OCTOPUS MS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15/01/2026 10:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Implementação iniciada. Módulos de integração em desenvolvimento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15/01/2026 10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ANDERSON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ATENÇÃO: Aguardando liberação de VPN pelo cliente. Prazo comprometido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15/01/2026 11:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Escalar para gerente de TI do cliente. VPN urgente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18/01/2026 09:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ANDERSON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Reunião agendada com TI do cliente para 20/01.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20/01/2026 16:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DOUGLAS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diretor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Acompanhando de perto. Manter atualizado sobre VPN.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CDSK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05/02/2026 08:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VINICIUS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Deploy da Fase 1 iniciado. Janela: 08:00-12:00.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CDSK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05/02/2026 11:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VINICIUS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Deploy concluído com sucesso! Sistemas operacionais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TITANIO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01/02/2026 14:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Período de estabilização iniciado. Monitoramento 24/7 ativo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TITANIO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>02/02/2026 09:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nenhum incidente nas primeiras 24h. Sistema estável.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25/01/2026 10:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FÁBIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Implementação em andamento. 60% dos módulos concluídos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28/01/2026 15:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FÁBIO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Problema de compatibilidade com sistema legado identificado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>29/01/2026 09:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Qual o impacto no cronograma? Avaliar riscos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30/01/2026 11:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FÁBIO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Problema resolvido com workaround. Cronograma mantido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>REVERSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>28/01/2026 14:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Testes iniciados. Cobertura atual: 45%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>REVERSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01/02/2026 16:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALEX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cobertura de testes em 78%. Bugs corrigidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20/01/2026 09:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ANDERSON</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Aguardando sinal do datacenter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25/01/2026 14:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ANDERSON</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sinal recebido. Configuração em andamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>09/02/2026 10:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LEANDRO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Go Live B2B realizado com sucesso!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>09/02/2026 15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DOUGLAS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Diretor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Excelente trabalho da equipe. Parabéns!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CRISTAL MG RETROFIT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01/02/2026 09:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GIOVANNI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Escopo em revisão. Cliente solicitou alterações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CRISTAL MG RETROFIT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>02/02/2026 11:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Agendar reunião para alinhar novo escopo.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,53 +2996,47 @@
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>PROJETO</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ATIVIDADE</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>FASE</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DATA INÍCIO</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA FIM</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIÇÃO</t>
         </is>
       </c>
     </row>
@@ -2198,7 +3071,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2231,7 +3103,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2264,7 +3135,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2297,7 +3167,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2330,7 +3199,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2363,7 +3231,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2396,7 +3263,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2429,7 +3295,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2462,7 +3327,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2495,7 +3359,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2528,7 +3391,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2561,7 +3423,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2594,7 +3455,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2627,7 +3487,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2660,7 +3519,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2693,7 +3551,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2726,7 +3583,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2759,7 +3615,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2792,7 +3647,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2825,7 +3679,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2858,7 +3711,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2891,7 +3743,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2924,7 +3775,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,7 +3807,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2990,7 +3839,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3023,7 +3871,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3056,7 +3903,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3089,7 +3935,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3122,7 +3967,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3155,7 +3999,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3188,7 +4031,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3221,7 +4063,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,7 +4095,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3287,7 +4127,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3320,7 +4159,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3353,7 +4191,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3386,7 +4223,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3419,7 +4255,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3452,7 +4287,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3485,7 +4319,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3518,7 +4351,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3551,7 +4383,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3584,7 +4415,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3617,7 +4447,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3650,7 +4479,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3683,7 +4511,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3716,7 +4543,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3749,7 +4575,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3782,7 +4607,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3815,7 +4639,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3848,7 +4671,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3881,7 +4703,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3914,7 +4735,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3947,7 +4767,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3980,7 +4799,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4013,7 +4831,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4046,7 +4863,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4079,7 +4895,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4112,7 +4927,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4145,7 +4959,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4178,7 +4991,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4211,7 +5023,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4244,7 +5055,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4277,7 +5087,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4310,7 +5119,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4343,7 +5151,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4376,7 +5183,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4409,7 +5215,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4442,7 +5247,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4475,7 +5279,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4508,7 +5311,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4541,7 +5343,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4574,7 +5375,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4607,7 +5407,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4640,7 +5439,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4673,7 +5471,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4706,7 +5503,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4739,7 +5535,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4772,7 +5567,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4805,7 +5599,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4838,7 +5631,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4871,7 +5663,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4904,7 +5695,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4937,7 +5727,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4970,7 +5759,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5003,7 +5791,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5036,7 +5823,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5069,7 +5855,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5102,7 +5887,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5135,7 +5919,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5168,7 +5951,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5201,7 +5983,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5234,7 +6015,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5267,7 +6047,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5300,7 +6079,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5333,7 +6111,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5366,7 +6143,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5399,7 +6175,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5432,7 +6207,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5465,7 +6239,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5498,7 +6271,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5531,7 +6303,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5564,7 +6335,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5597,7 +6367,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5630,7 +6399,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5663,7 +6431,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5696,7 +6463,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5729,7 +6495,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5762,7 +6527,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5795,7 +6559,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5828,7 +6591,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5861,7 +6623,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5894,7 +6655,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5927,7 +6687,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5960,7 +6719,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5993,7 +6751,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6026,7 +6783,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6059,7 +6815,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6092,7 +6847,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6125,7 +6879,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6158,7 +6911,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6191,7 +6943,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6224,7 +6975,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6257,7 +7007,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6290,7 +7039,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6323,7 +7071,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6356,7 +7103,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6389,7 +7135,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6422,7 +7167,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6455,7 +7199,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6488,7 +7231,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6521,7 +7263,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6554,7 +7295,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6587,7 +7327,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6620,7 +7359,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6653,7 +7391,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6686,7 +7423,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6719,7 +7455,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6752,7 +7487,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6785,7 +7519,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6818,7 +7551,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6851,7 +7583,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6884,7 +7615,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6917,7 +7647,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6950,7 +7679,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6983,7 +7711,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -7016,7 +7743,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7049,7 +7775,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -7082,7 +7807,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7115,7 +7839,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -7148,7 +7871,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7181,7 +7903,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7214,7 +7935,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7247,7 +7967,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7280,7 +7999,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7313,7 +8031,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7346,7 +8063,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7379,7 +8095,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7412,7 +8127,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7445,7 +8159,6 @@
           <t>ANDERSON</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7478,7 +8191,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7511,7 +8223,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7544,7 +8255,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7577,7 +8287,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7610,7 +8319,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7643,7 +8351,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7676,7 +8383,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7709,7 +8415,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7742,7 +8447,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7775,7 +8479,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7808,7 +8511,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7841,7 +8543,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7874,7 +8575,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7907,7 +8607,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7940,7 +8639,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7973,7 +8671,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8006,7 +8703,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8039,7 +8735,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8072,7 +8767,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8105,7 +8799,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8138,7 +8831,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8171,7 +8863,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8204,7 +8895,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8237,7 +8927,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8270,7 +8959,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8303,7 +8991,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8336,7 +9023,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8369,7 +9055,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8402,7 +9087,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8435,7 +9119,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8468,7 +9151,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8501,7 +9183,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8534,7 +9215,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8567,7 +9247,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8600,7 +9279,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8633,7 +9311,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8666,7 +9343,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8699,7 +9375,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8732,7 +9407,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8765,7 +9439,6 @@
           <t>LEANDRO</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8798,7 +9471,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8831,7 +9503,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8864,7 +9535,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8897,7 +9567,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8930,7 +9599,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8963,7 +9631,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8996,7 +9663,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9029,7 +9695,6 @@
           <t>VINICIUS</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9062,7 +9727,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9095,7 +9759,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9128,7 +9791,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9161,7 +9823,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9194,7 +9855,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9227,7 +9887,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9260,7 +9919,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9293,7 +9951,6 @@
           <t>FÁBIO</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -9326,7 +9983,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9359,7 +10015,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9392,7 +10047,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9425,7 +10079,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9458,7 +10111,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9491,7 +10143,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9524,7 +10175,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9557,7 +10207,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9590,7 +10239,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9623,7 +10271,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9656,7 +10303,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9689,7 +10335,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9722,7 +10367,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9755,7 +10399,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9788,7 +10431,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9821,7 +10463,6 @@
           <t>GIOVANNI</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9854,7 +10495,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9887,7 +10527,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9920,7 +10559,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9953,7 +10591,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9986,7 +10623,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10019,7 +10655,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10052,7 +10687,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10085,7 +10719,6 @@
           <t>ALEX</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dashboard_Projetos_v8.xlsx
+++ b/Dashboard_Projetos_v8.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projetos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tratativas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tratativas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -820,7 +820,6 @@
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>Aguardando Kickoff</t>
@@ -1028,7 +1027,6 @@
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>Revisão de escopo</t>
@@ -1501,7 +1499,6 @@
           <t>2026-03-01</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>Aguardando requisitos</t>
@@ -2105,876 +2102,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="60" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PROJETO</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DATA/HORA</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>USUÁRIO</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>TIPO</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>DESCRIÇÃO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OCTOPUS MS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01/01/2026 09:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Kickoff realizado com sucesso. Participantes: equipe técnica, cliente e stakeholders.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OCTOPUS MS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01/01/2026 14:15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DAIANA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Gestora</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Excelente início! Garantir documentação compartilhada com todos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OCTOPUS MS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15/01/2026 10:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Implementação iniciada. Módulos de integração em desenvolvimento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15/01/2026 10:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ANDERSON</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alerta</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ATENÇÃO: Aguardando liberação de VPN pelo cliente. Prazo comprometido.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15/01/2026 11:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DAIANA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Gestora</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Escalar para gerente de TI do cliente. VPN urgente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18/01/2026 09:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ANDERSON</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Reunião agendada com TI do cliente para 20/01.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20/01/2026 16:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DOUGLAS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Diretor</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Acompanhando de perto. Manter atualizado sobre VPN.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CDSK</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>05/02/2026 08:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VINICIUS</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Deploy da Fase 1 iniciado. Janela: 08:00-12:00.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CDSK</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>05/02/2026 11:45</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VINICIUS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Resolução</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Deploy concluído com sucesso! Sistemas operacionais.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TITANIO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>01/02/2026 14:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Período de estabilização iniciado. Monitoramento 24/7 ativo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TITANIO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>02/02/2026 09:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Nenhum incidente nas primeiras 24h. Sistema estável.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PBL GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>25/01/2026 10:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FÁBIO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Implementação em andamento. 60% dos módulos concluídos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PBL GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>28/01/2026 15:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>FÁBIO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Alerta</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Problema de compatibilidade com sistema legado identificado.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PBL GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>29/01/2026 09:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DAIANA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Gestora</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Qual o impacto no cronograma? Avaliar riscos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PBL GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30/01/2026 11:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>FÁBIO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Resolução</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Problema resolvido com workaround. Cronograma mantido.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>REVERSE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>28/01/2026 14:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Testes iniciados. Cobertura atual: 45%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>REVERSE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>01/02/2026 16:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ALEX</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Cobertura de testes em 78%. Bugs corrigidos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NAVEPARK</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20/01/2026 09:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ANDERSON</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Aguardando sinal do datacenter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NAVEPARK</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>25/01/2026 14:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ANDERSON</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Atualização</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Sinal recebido. Configuração em andamento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>COUGAR</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>09/02/2026 10:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LEANDRO</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Resolução</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Go Live B2B realizado com sucesso!</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>COUGAR</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>09/02/2026 15:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DOUGLAS</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Diretor</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Excelente trabalho da equipe. Parabéns!</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CRISTAL MG RETROFIT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>01/02/2026 09:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GIOVANNI</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PMO</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Alerta</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Escopo em revisão. Cliente solicitou alterações.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CRISTAL MG RETROFIT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>02/02/2026 11:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DAIANA</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Gestora</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Comentário</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Agendar reunião para alinhar novo escopo.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3064,8 +2191,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3096,8 +2221,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3128,8 +2251,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3160,8 +2281,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3192,8 +2311,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3224,8 +2341,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3256,8 +2371,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3288,8 +2401,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -3320,8 +2431,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3352,8 +2461,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3384,8 +2491,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3416,8 +2521,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3448,8 +2551,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3480,8 +2581,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3512,8 +2611,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3544,8 +2641,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3576,8 +2671,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3608,8 +2701,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3640,8 +2731,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3672,8 +2761,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3704,8 +2791,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3736,8 +2821,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3768,8 +2851,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3800,8 +2881,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3832,8 +2911,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3864,8 +2941,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3896,8 +2971,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3928,8 +3001,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3960,8 +3031,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -3992,8 +3061,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -4024,8 +3091,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -4056,8 +3121,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -4088,8 +3151,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4120,8 +3181,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4152,8 +3211,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4184,8 +3241,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4216,8 +3271,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4248,8 +3301,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4280,8 +3331,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4312,8 +3361,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -4344,8 +3391,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4376,8 +3421,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4408,8 +3451,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4440,8 +3481,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4472,8 +3511,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4504,8 +3541,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4536,8 +3571,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4568,8 +3601,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -4600,8 +3631,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4632,8 +3661,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4664,8 +3691,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4696,8 +3721,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4728,8 +3751,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4760,8 +3781,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4792,8 +3811,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4824,8 +3841,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -4856,8 +3871,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -4888,8 +3901,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -4920,8 +3931,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -4952,8 +3961,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -4984,8 +3991,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -5016,8 +4021,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -5048,8 +4051,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -5080,8 +4081,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -5112,8 +4111,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5144,8 +4141,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5176,8 +4171,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5208,8 +4201,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5240,8 +4231,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5272,8 +4261,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5304,8 +4291,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5336,8 +4321,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -5368,8 +4351,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5400,8 +4381,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5432,8 +4411,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5464,8 +4441,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5496,8 +4471,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5528,8 +4501,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5560,8 +4531,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5592,8 +4561,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -5624,8 +4591,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5656,8 +4621,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5688,8 +4651,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5720,8 +4681,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5752,8 +4711,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5784,8 +4741,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5816,8 +4771,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5848,8 +4801,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -5880,8 +4831,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -5912,8 +4861,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -5944,8 +4891,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -5976,8 +4921,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6008,8 +4951,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6040,8 +4981,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6072,8 +5011,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6104,8 +5041,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6136,8 +5071,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6168,8 +5101,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6200,8 +5131,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6232,8 +5161,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6264,8 +5191,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6296,8 +5221,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6328,8 +5251,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6360,8 +5281,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -6392,8 +5311,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6424,8 +5341,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6456,8 +5371,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6488,8 +5401,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6520,8 +5431,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6552,8 +5461,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6584,8 +5491,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6616,8 +5521,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -6648,8 +5551,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6680,8 +5581,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6712,8 +5611,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6744,8 +5641,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6776,8 +5671,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6808,8 +5701,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6840,8 +5731,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6872,8 +5761,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -6904,8 +5791,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6936,8 +5821,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -6968,8 +5851,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7000,8 +5881,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7032,8 +5911,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7064,8 +5941,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7096,8 +5971,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7128,8 +6001,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -7160,8 +6031,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7192,8 +6061,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7224,8 +6091,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7256,8 +6121,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7288,8 +6151,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7320,8 +6181,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7352,8 +6211,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7384,8 +6241,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7416,8 +6271,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7448,8 +6301,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7480,8 +6331,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7512,8 +6361,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7544,8 +6391,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7576,8 +6421,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7608,8 +6451,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7640,8 +6481,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -7672,8 +6511,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7704,8 +6541,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7736,8 +6571,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7768,8 +6601,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7800,8 +6631,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7832,8 +6661,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7864,8 +6691,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7896,8 +6721,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -7928,8 +6751,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -7960,8 +6781,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -7992,8 +6811,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8024,8 +6841,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8056,8 +6871,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8088,8 +6901,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8120,8 +6931,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8152,8 +6961,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
           <t>ANDERSON</t>
@@ -8184,8 +6991,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8216,8 +7021,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8248,8 +7051,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8280,8 +7081,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8312,8 +7111,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8344,8 +7141,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8376,8 +7171,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8408,8 +7201,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8440,8 +7231,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8472,8 +7261,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8504,8 +7291,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8536,8 +7321,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8568,8 +7351,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8600,8 +7381,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8632,8 +7411,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8664,8 +7441,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -8696,8 +7471,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8728,8 +7501,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8760,8 +7531,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8792,8 +7561,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8824,8 +7591,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8856,8 +7621,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8888,8 +7651,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8920,8 +7681,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -8952,8 +7711,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -8984,8 +7741,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9016,8 +7771,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9048,8 +7801,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9080,8 +7831,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9112,8 +7861,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9144,8 +7891,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9176,8 +7921,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9208,8 +7951,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9240,8 +7981,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9272,8 +8011,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9304,8 +8041,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9336,8 +8071,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9368,8 +8101,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9400,8 +8131,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9432,8 +8161,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
           <t>LEANDRO</t>
@@ -9464,8 +8191,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9496,8 +8221,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9528,8 +8251,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9560,8 +8281,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9592,8 +8311,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9624,8 +8341,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9656,8 +8371,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9688,8 +8401,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
           <t>VINICIUS</t>
@@ -9720,8 +8431,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9752,8 +8461,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9784,8 +8491,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9816,8 +8521,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9848,8 +8551,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9880,8 +8581,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9912,8 +8611,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9944,8 +8641,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
           <t>FÁBIO</t>
@@ -9976,8 +8671,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10008,8 +8701,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10040,8 +8731,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10072,8 +8761,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10104,8 +8791,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10136,8 +8821,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10168,8 +8851,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10200,8 +8881,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10232,8 +8911,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10264,8 +8941,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10296,8 +8971,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10328,8 +9001,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10360,8 +9031,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10392,8 +9061,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10424,8 +9091,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10456,8 +9121,6 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>GIOVANNI</t>
@@ -10488,8 +9151,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10520,8 +9181,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10552,8 +9211,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10584,8 +9241,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10616,8 +9271,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10648,8 +9301,6 @@
           <t>Concluído</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10680,8 +9331,6 @@
           <t>Em andamento</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>ALEX</t>
@@ -10712,11 +9361,1160 @@
           <t>Não Iniciado</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
           <t>ALEX</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PROJETO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>ATIVIDADE</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>DATA/HORA</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>USUÁRIO</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIÇÃO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>01/10/2025 09:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Kickoff realizado com sucesso. Stakeholders alinhados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01/10/2025 14:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Excelente início! Documentar decisões.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>06/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Iniciada elaboração da documentação técnica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20/10/2025 16:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Documentação concluída e aprovada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Configuração Rede</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05/12/2025 09:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carlos Lima</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Técnico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Configuração de switches iniciada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COUGAR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Configuração Rede</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15/01/2026 11:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carlos Lima</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Técnico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aguardando licenças de software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BETA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>João Santos</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kickoff do projeto BETA realizado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BETA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15/11/2025 15:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prioridade alta. Acompanhar de perto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BETA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25/11/2025 09:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Documentação técnica em elaboração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BETA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10/01/2026 14:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pendente aprovação do cliente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>01/06/2025 09:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Kickoff realizado. Equipe mobilizada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10/06/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Documentação iniciada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>01/07/2025 16:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Documentação completa e aprovada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Aceite Formal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>05/12/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Processo de aceite iniciado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NAVEPARK</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Aceite Formal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10/01/2026 15:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DOUGLAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Diretor</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Resolução</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Aceite formal assinado. Projeto encerrado com sucesso!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ESPERANÇA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>01/12/2025 09:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Carlos Lima</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Aguardando aprovação do orçamento para iniciar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ESPERANÇA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>05/12/2025 11:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Escalar para diretoria a aprovação do orçamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ESPERANÇA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15/12/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Preparando templates de documentação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15/01/2026 09:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pedro Souza</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Kickoff internacional realizado via videoconferência.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15/01/2026 14:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Atenção ao fuso horário nas reuniões.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PBL GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20/01/2026 10:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pedro Souza</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Documentação em espanhol em elaboração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>KICKOFF INTERNO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>01/09/2025 09:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Kickoff realizado em Belo Horizonte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10/09/2025 10:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Atualização</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Documentação iniciada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15/01/2026 14:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cliente solicitou alterações no escopo. Revisão necessária.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Documentação Layout</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16/01/2026 09:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DAIANA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gestora</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Agendar reunião para alinhar novo escopo com cliente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Testes Homologação</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20/01/2026 10:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Maria Silva</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ATENÇÃO: Projeto atrasado. Testes não iniciados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CRISTAL MG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Testes Homologação</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20/01/2026 15:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DOUGLAS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Diretor</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Comentário</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Priorizar resolução. Reunião de crise agendada.</t>
         </is>
       </c>
     </row>
